--- a/Nuevo Enfoque Datos/dominanciaMarbella.xlsx
+++ b/Nuevo Enfoque Datos/dominanciaMarbella.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\talento\Downloads\Nuevo Enfoque Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D57AB7-7FF4-49E8-B174-8668C82CB867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592F4FCE-EF49-426F-B948-13BEC23AFCFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,11 +129,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,7 +440,7 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -477,16 +478,16 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -494,16 +495,16 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -511,16 +512,16 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
